--- a/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.111566366821581</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.86753932643833</v>
+        <v>4.867539326438319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.115232494081389</v>
@@ -649,7 +649,7 @@
         <v>0.01312097953383816</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.08676778302651253</v>
+        <v>0.08676778302651231</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.426104587319883</v>
+        <v>3.615747492668971</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1688495971567187</v>
+        <v>0.04508928341491374</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.560658738682395</v>
+        <v>-4.545463589026812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.300741409881664</v>
+        <v>-2.838499831007689</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05251666344787952</v>
+        <v>0.0430034234136594</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002054065387780155</v>
+        <v>0.001168351404572481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0535498063445745</v>
+        <v>-0.05142582179726842</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04052226297657321</v>
+        <v>-0.04573984257711576</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.66332339280091</v>
+        <v>15.1050263759692</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.47233306605746</v>
+        <v>13.74249287116929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.579318084190602</v>
+        <v>7.646431636121577</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.57196985772242</v>
+        <v>12.69307801320116</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2031285119171918</v>
+        <v>0.196241859308919</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1790103465082682</v>
+        <v>0.1849542158051098</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09235637259569734</v>
+        <v>0.09529046383640324</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2386060662560631</v>
+        <v>0.2490902178598997</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.5854189798264575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.659328090478577</v>
+        <v>-5.659328090478555</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1065005198532473</v>
@@ -749,7 +749,7 @@
         <v>-0.007020712174384333</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.08888973239160373</v>
+        <v>-0.08888973239160342</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8057062613647766</v>
+        <v>0.4713971744925566</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.557283923691314</v>
+        <v>-4.035983202913737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.218209407496819</v>
+        <v>-5.276674719163217</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.11672180262271</v>
+        <v>-12.14448581796659</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01148905495045524</v>
+        <v>0.00643920935917825</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07739293683322927</v>
+        <v>-0.06759318652969039</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06198111382143124</v>
+        <v>-0.06188296919108124</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1794752100214961</v>
+        <v>-0.1795108819866572</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.63934199980151</v>
+        <v>11.84129523492106</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.956597993104351</v>
+        <v>9.01858461209377</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.305862305251653</v>
+        <v>4.347881839480011</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9668344576682166</v>
+        <v>0.9779605417406674</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.21551964915779</v>
+        <v>0.1968385875164797</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1707191839658871</v>
+        <v>0.1723591731020558</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05304813341059846</v>
+        <v>0.05413300240333664</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01634336049925108</v>
+        <v>0.01648215428854582</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.330978885744985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.875324407455164</v>
+        <v>6.875324407455169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.09089110186857823</v>
@@ -849,7 +849,7 @@
         <v>0.05511148808143635</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1399671478852739</v>
+        <v>0.139967147885274</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.36410914007628</v>
+        <v>-13.26344964183114</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.194809709595554</v>
+        <v>2.932438266949276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.586127132096304</v>
+        <v>-1.959423239666732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.496476983486057</v>
+        <v>-0.1595350006749605</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1950975726628364</v>
+        <v>-0.1982377118432238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03295087085423073</v>
+        <v>0.03980904666208902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01995458207261972</v>
+        <v>-0.02363760902651323</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.009679540059081695</v>
+        <v>-0.004046391246975761</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.870325189803577</v>
+        <v>2.285810836337423</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.53875882856306</v>
+        <v>16.68681606493783</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.43205175694224</v>
+        <v>9.976616738748227</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.60145482214217</v>
+        <v>14.83269324506927</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0333940050477716</v>
+        <v>0.03770279757543064</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2682500981569546</v>
+        <v>0.2698980337413832</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1415497371961663</v>
+        <v>0.1326938722833062</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3218663886861745</v>
+        <v>0.3312283520579641</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.7179359752163</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.966723197186622</v>
+        <v>2.966723197186616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.01708264962639928</v>
@@ -949,7 +949,7 @@
         <v>0.2251625089832812</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.08583803782855982</v>
+        <v>0.08583803782855969</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.123575662124773</v>
+        <v>-7.777250573637767</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.388797604976803</v>
+        <v>2.193427851759635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.897948905090469</v>
+        <v>3.910059596699088</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.446188486190395</v>
+        <v>-4.517724998136155</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1035173744507391</v>
+        <v>-0.1019491816798583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02360810085114784</v>
+        <v>0.0373822784898368</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05672704152053146</v>
+        <v>0.07647301707481141</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1333435722835012</v>
+        <v>-0.1159135930053164</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.45457017704777</v>
+        <v>4.849167221627482</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.48968243768514</v>
+        <v>16.56805208918102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.20747453065766</v>
+        <v>19.06065706736423</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.46603532639683</v>
+        <v>10.59875494094377</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08101967984097663</v>
+        <v>0.06887051508973241</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3288060320908145</v>
+        <v>0.3337870265683949</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4167783651159306</v>
+        <v>0.436784952903434</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3624501479470149</v>
+        <v>0.3560036041587205</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.4921964197569073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5971199411590633</v>
+        <v>0.5971199411590522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06737851815683316</v>
@@ -1049,7 +1049,7 @@
         <v>0.005398482184559028</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.006476018463316251</v>
+        <v>0.006476018463316131</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.453995312491883</v>
+        <v>-2.287985573831539</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.136778461921181</v>
+        <v>5.901812928349954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.022676783177592</v>
+        <v>-4.431164583267935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.209151415182953</v>
+        <v>-3.679653634529684</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.02612662306998913</v>
+        <v>-0.02513277346612746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1108699347694736</v>
+        <v>0.09917493870042417</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.05461925118787197</v>
+        <v>-0.04782870567915896</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.04390767705568906</v>
+        <v>-0.03844662072006705</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.66754402280757</v>
+        <v>12.36902949901343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>25.23835924142813</v>
+        <v>25.27510747169891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.844948030353895</v>
+        <v>5.932463751619192</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.776512156559544</v>
+        <v>5.834094114445548</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1660816002550305</v>
+        <v>0.1616148285612174</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4815022841931656</v>
+        <v>0.4926955002630475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06571504806713038</v>
+        <v>0.06678310400032964</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.06524271087700526</v>
+        <v>0.06657210442385018</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>1.942948294107483</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.4946022555131213</v>
+        <v>-0.4946022555131269</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0282917357027467</v>
@@ -1149,7 +1149,7 @@
         <v>0.02440945196961792</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.01158880495598727</v>
+        <v>-0.0115888049559874</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.217429379516015</v>
+        <v>-5.110224108614701</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.682858727967239</v>
+        <v>4.92555440680098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.997288517919901</v>
+        <v>-4.5964107728174</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.357518489976189</v>
+        <v>-6.85877892896544</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06875194089794706</v>
+        <v>-0.06892696572826261</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08366153210694757</v>
+        <v>0.07092414806491056</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05953174370982155</v>
+        <v>-0.05558803288229504</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1607361997682984</v>
+        <v>-0.1471302253174437</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.835079067241024</v>
+        <v>9.714195597803966</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>20.67458801742458</v>
+        <v>20.57014998262272</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.925555113128791</v>
+        <v>8.397552426295485</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.235806727781385</v>
+        <v>6.943387543181344</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.146364750098721</v>
+        <v>0.1452105002947126</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3466762805020055</v>
+        <v>0.3387328794825893</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1189891514047192</v>
+        <v>0.1096788977304783</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1622169715313568</v>
+        <v>0.1832953508322659</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.428638683109642</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.06947493790954162</v>
+        <v>-0.06947493790956383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.07602916962571568</v>
@@ -1249,7 +1249,7 @@
         <v>0.04027832963891937</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.001045719085160138</v>
+        <v>-0.001045719085160472</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.24992356409897</v>
+        <v>-9.74344437516295</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.537904331587209</v>
+        <v>4.302528012227141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3389379864222167</v>
+        <v>-0.3676263607902841</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.608192294183509</v>
+        <v>-5.125128110534947</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1807945487499726</v>
+        <v>-0.1705717613539522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06961432831133961</v>
+        <v>0.0672316740998745</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.004309926651653678</v>
+        <v>-0.004208048849163756</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.08065572554091127</v>
+        <v>-0.07299386568720161</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.483156381266074</v>
+        <v>1.648499805669059</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.13026476269221</v>
+        <v>14.93714613526102</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.529216659939128</v>
+        <v>7.376604477141852</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.885145842981619</v>
+        <v>5.668556590284809</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02724328068258646</v>
+        <v>0.03314577393463922</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2570046672337125</v>
+        <v>0.2543616612706329</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09173814822663301</v>
+        <v>0.08909704769543038</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.0930970222254979</v>
+        <v>0.08904188212157843</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.594529449516171</v>
+        <v>1.419194480573246</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-4.700196898795594</v>
+        <v>-4.247774362222709</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.6750007723911395</v>
+        <v>-0.8042941396361812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.160547206554541</v>
+        <v>-1.323317993095262</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01867648204218396</v>
+        <v>0.01648113337975387</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05077631776446973</v>
+        <v>-0.0457096643664833</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.007150380059374337</v>
+        <v>-0.008393384931428119</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0130752509119582</v>
+        <v>-0.01496717166062141</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.694816757824732</v>
+        <v>8.549553209983779</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.472734747335682</v>
+        <v>1.795365754911278</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.15240492796875</v>
+        <v>4.160020522111799</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.952449648663371</v>
+        <v>6.082118625448731</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1079985418398565</v>
+        <v>0.105092982658638</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01627388737034196</v>
+        <v>0.01997262784577103</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04526333772773995</v>
+        <v>0.04543316819382248</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07160641323763806</v>
+        <v>0.07331756881368016</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>2.88134772575277</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.9882167630618333</v>
+        <v>0.9882167630618222</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02646873833756958</v>
@@ -1449,7 +1449,7 @@
         <v>0.03517856770355817</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.01536179244209164</v>
+        <v>0.01536179244209147</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2537779414235032</v>
+        <v>-0.2467497475477217</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.097707137643384</v>
+        <v>4.171283558881444</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.177031773334716</v>
+        <v>0.8900245611028179</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.338088540502614</v>
+        <v>-1.349928458322315</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.00358010557111627</v>
+        <v>-0.003394210479591742</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05849161065987684</v>
+        <v>0.05939946023323849</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01424076274828994</v>
+        <v>0.01068441786207376</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.02034123481150011</v>
+        <v>-0.02047256716258623</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.024409413482974</v>
+        <v>4.195553392874501</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.664144064773915</v>
+        <v>8.546607415067504</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.734234016230136</v>
+        <v>4.688907954898143</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.276213867602379</v>
+        <v>3.364956696673918</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05751661896004386</v>
+        <v>0.06124635825815861</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1291793689797112</v>
+        <v>0.1265328955558792</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05875185526284415</v>
+        <v>0.05777915794962067</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.05178321752347959</v>
+        <v>0.05342154178804824</v>
       </c>
     </row>
     <row r="31">
